--- a/src/test/resources/test.xlsx
+++ b/src/test/resources/test.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28695" windowHeight="13050"/>
+    <workbookView windowWidth="28695" windowHeight="12630" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -175,8 +175,8 @@
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="23">
     <font>
@@ -210,15 +210,106 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -232,115 +323,24 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -355,187 +355,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -546,6 +546,24 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -560,21 +578,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -596,38 +599,9 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -646,6 +620,32 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -654,10 +654,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="15" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="17" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -666,133 +666,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="25" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="17" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="17" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="32" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="27" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="23" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1155,8 +1155,8 @@
   <sheetPr/>
   <dimension ref="A3:E6"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <selection activeCell="A1" sqref="$A1:$XFD1"/>
+    <sheetView zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
+      <selection activeCell="E6" sqref="A3:E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="5" outlineLevelCol="4"/>
@@ -1243,14 +1243,86 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1"/>
+  <dimension ref="A1:E4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="A1" sqref="A1:E4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
-  <sheetData/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="3" outlineLevelCol="4"/>
+  <cols>
+    <col min="1" max="1" width="22.125" customWidth="1"/>
+    <col min="2" max="2" width="19.125" customWidth="1"/>
+    <col min="3" max="3" width="22.25" customWidth="1"/>
+    <col min="4" max="4" width="24.25" customWidth="1"/>
+    <col min="5" max="5" width="28.5" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" ht="14.25" spans="1:5">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" ht="14.25" spans="1:5">
+      <c r="A2" s="1">
+        <v>1</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" ht="14.25" spans="1:5">
+      <c r="A3" s="1">
+        <v>2</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D3" s="3"/>
+      <c r="E3" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="4" ht="14.25" spans="1:5">
+      <c r="A4" s="1">
+        <v>3</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D4" s="2"/>
+      <c r="E4" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter/>

--- a/src/test/resources/test.xlsx
+++ b/src/test/resources/test.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28695" windowHeight="12630" activeTab="1"/>
+    <workbookView windowWidth="28695" windowHeight="12630"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -173,10 +173,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="23">
     <font>
@@ -209,8 +209,23 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -224,6 +239,13 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
@@ -232,8 +254,25 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -241,6 +280,21 @@
     <font>
       <u/>
       <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
       <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -248,38 +302,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -294,13 +324,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -322,29 +345,6 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -355,187 +355,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -551,9 +551,11 @@
     <border>
       <left/>
       <right/>
-      <top/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -583,6 +585,21 @@
     </border>
     <border>
       <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
@@ -600,8 +617,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -623,26 +640,9 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -654,10 +654,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="17" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="26" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -666,133 +666,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="27" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="23" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="13" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="31" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1155,8 +1155,8 @@
   <sheetPr/>
   <dimension ref="A3:E6"/>
   <sheetViews>
-    <sheetView zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <selection activeCell="E6" sqref="A3:E6"/>
+    <sheetView tabSelected="1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3:E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="5" outlineLevelCol="4"/>
@@ -1203,7 +1203,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="5" s="1" customFormat="1" spans="1:5">
+    <row r="5" spans="1:5">
       <c r="A5" s="1">
         <v>2</v>
       </c>
@@ -1218,7 +1218,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="6" s="1" customFormat="1" spans="1:5">
+    <row r="6" spans="1:5">
       <c r="A6" s="1">
         <v>3</v>
       </c>
@@ -1245,7 +1245,7 @@
   <sheetPr/>
   <dimension ref="A1:E4"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
       <selection activeCell="A1" sqref="A1:E4"/>
     </sheetView>
   </sheetViews>

--- a/src/test/resources/test.xlsx
+++ b/src/test/resources/test.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16">
   <si>
     <t>Id</t>
   </si>
@@ -55,11 +55,120 @@
   </si>
   <si>
     <r>
+      <t>测试</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <charset val="0"/>
+      </rPr>
+      <t>2</t>
+    </r>
+  </si>
+  <si>
+    <r>
       <rPr>
         <sz val="10"/>
         <rFont val="宋体"/>
         <charset val="0"/>
       </rPr>
+      <t>标准答案</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <charset val="0"/>
+      </rPr>
+      <t>1</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="宋体"/>
+        <charset val="0"/>
+      </rPr>
+      <t>问题名称</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <charset val="0"/>
+      </rPr>
+      <t>2</t>
+    </r>
+  </si>
+  <si>
+    <t>测试2</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="宋体"/>
+        <charset val="0"/>
+      </rPr>
+      <t>标准答案</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <charset val="0"/>
+      </rPr>
+      <t>2</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="宋体"/>
+        <charset val="0"/>
+      </rPr>
+      <t>问题名称</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <charset val="0"/>
+      </rPr>
+      <t>3</t>
+    </r>
+  </si>
+  <si>
+    <t>测试3</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="宋体"/>
+        <charset val="0"/>
+      </rPr>
+      <t>标准答案</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <charset val="0"/>
+      </rPr>
+      <t>3</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="宋体"/>
+        <charset val="0"/>
+      </rPr>
       <t>测试</t>
     </r>
     <r>
@@ -69,102 +178,6 @@
         <charset val="0"/>
       </rPr>
       <t>2</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="宋体"/>
-        <charset val="0"/>
-      </rPr>
-      <t>标准答案</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <charset val="0"/>
-      </rPr>
-      <t>1</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="宋体"/>
-        <charset val="0"/>
-      </rPr>
-      <t>问题名称</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <charset val="0"/>
-      </rPr>
-      <t>2</t>
-    </r>
-  </si>
-  <si>
-    <t>测试2</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="宋体"/>
-        <charset val="0"/>
-      </rPr>
-      <t>标准答案</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <charset val="0"/>
-      </rPr>
-      <t>2</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="宋体"/>
-        <charset val="0"/>
-      </rPr>
-      <t>问题名称</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <charset val="0"/>
-      </rPr>
-      <t>3</t>
-    </r>
-  </si>
-  <si>
-    <t>测试3</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="宋体"/>
-        <charset val="0"/>
-      </rPr>
-      <t>标准答案</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <charset val="0"/>
-      </rPr>
-      <t>3</t>
     </r>
   </si>
 </sst>
@@ -173,8 +186,8 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
@@ -209,18 +222,125 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -238,113 +358,6 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -355,187 +368,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -546,41 +559,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -600,16 +578,16 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </right>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -642,6 +620,41 @@
       <right/>
       <top/>
       <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
@@ -654,145 +667,145 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="23" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="23" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="20" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="26" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="19" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="13" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="31" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1156,7 +1169,7 @@
   <dimension ref="A3:E6"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:E6"/>
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="5" outlineLevelCol="4"/>
@@ -1286,7 +1299,7 @@
         <v>6</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="E2" s="3" t="s">
         <v>8</v>
